--- a/data/data_student_1.xlsx
+++ b/data/data_student_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/Documents/UW/AUT22/CSE583/group_project/learning-with-python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE55F07-27FF-0741-B257-A8D702F21FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{481B68CB-3B2A-6247-B2FD-C4B3051771B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="24700"/>
   </bookViews>
@@ -937,11 +937,14 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
